--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1076,7 +1076,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,14 +1154,16 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>10455</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,11 +1175,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,11 +1191,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,11 +1207,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1223,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1239,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1255,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1271,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,11 +1287,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1303,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1319,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1335,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1351,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1367,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1383,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1399,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1415,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1431,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1447,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1463,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1479,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1495,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1511,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1527,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1543,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1559,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1575,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1591,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1607,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1624,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44645</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1657,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>10455</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1678,7 +1680,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>60572</v>
+        <v>50117</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1155,31 +1155,39 @@
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8">
-        <v>10455</v>
+        <v>50000</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>50117</v>
+        <v>117</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>46</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44671</v>
+      </c>
+      <c r="B6" s="8">
+        <v>25794</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44670</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10455</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44648</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1191,11 +1199,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1207,11 +1215,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1223,11 +1231,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,11 +1247,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,11 +1263,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1279,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1287,11 +1295,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,11 +1311,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,11 +1327,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,11 +1343,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,11 +1359,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,11 +1375,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1391,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,11 +1407,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,11 +1423,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1439,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,11 +1455,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,11 +1471,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,11 +1487,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1503,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1519,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1535,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1551,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1567,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1583,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1599,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1615,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1632,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44648</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1649,7 +1657,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>60572</v>
+        <v>86366</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1657,7 +1665,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>10455</v>
+        <v>60455</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1680,7 +1688,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>50117</v>
+        <v>25911</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1163,7 +1163,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1163,7 +1163,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1163,7 +1163,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,49 +1145,35 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44602</v>
-      </c>
-      <c r="B5" s="8">
-        <v>60572</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8">
-        <v>50000</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>215</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44671</v>
-      </c>
-      <c r="B6" s="8">
-        <v>25794</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44670</v>
-      </c>
-      <c r="G6" s="8">
-        <v>10455</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>146</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1199,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1215,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1231,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1295,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1657,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>86366</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1665,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>60455</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1688,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>25911</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>CUSTOMER NAME - JAI PRAKASH SHUSHI KUMAR</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>BY RAVI</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1083,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,51 +1151,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44989</v>
+      </c>
+      <c r="B5" s="8">
+        <v>107622</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44988</v>
+      </c>
+      <c r="G5" s="8">
+        <v>40000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>66407</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="7">
         <v>44985</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>78481</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1215</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>144888</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44985</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44986</v>
+      </c>
+      <c r="B7" s="16">
+        <v>22561</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="51" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44985</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1201,11 +1231,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,11 +1247,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1263,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1279,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1295,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1281,11 +1311,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1327,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1343,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1359,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1375,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1391,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1407,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1423,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1439,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1455,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1471,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1487,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1503,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1519,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1535,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1551,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1567,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1583,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1599,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1615,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1631,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1648,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44985</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1643,7 +1673,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>208664</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1651,7 +1681,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>41215</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1674,7 +1704,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>167449</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>BY RAVI</t>
+  </si>
+  <si>
+    <t>BY RAVI BHAIYA</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1083,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1099,12 +1102,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1118,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1124,7 +1127,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
         <v>44989</v>
       </c>
@@ -1167,14 +1170,14 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>66407</v>
+        <v>-28693</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
         <v>44985</v>
       </c>
@@ -1193,14 +1196,14 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>144888</v>
+        <v>49788</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49">
         <v>44986</v>
       </c>
@@ -1211,34 +1214,45 @@
       <c r="D7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>45065</v>
+      </c>
+      <c r="G7" s="16">
+        <v>49000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>45090</v>
+      </c>
+      <c r="G8" s="16">
+        <v>46100</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45091</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="53"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1247,14 +1261,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="53"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1263,14 +1277,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1279,14 +1293,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="53"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1295,14 +1309,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="53"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1311,14 +1325,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="53"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1327,14 +1341,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="53"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1343,14 +1357,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="53"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1359,11 +1373,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1389,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1405,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1421,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1437,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1453,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1469,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1485,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1501,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1517,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1533,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1549,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1565,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1581,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1597,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1613,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1629,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1645,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,11 +1662,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45057</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1681,7 +1695,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>41215</v>
+        <v>136315</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1704,7 +1718,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>167449</v>
+        <v>72349</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/JAI PRAKASH.xlsx
+++ b/IMPORTANT/JAI PRAKASH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>BY RAVI BHAIYA</t>
+  </si>
+  <si>
+    <t>TO RAVI IN PNB</t>
+  </si>
+  <si>
+    <t>UCO BANK NARANAYNI TRANDER TO RAVI</t>
+  </si>
+  <si>
+    <t>SBI SANJAY  BALWAR TO RAVI</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1095,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1170,11 +1179,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-28693</v>
+        <v>-95515</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>102</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1196,11 +1205,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>49788</v>
+        <v>-17034</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>106</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1222,11 +1231,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>105</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1251,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -1257,15 +1266,22 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>45126</v>
+      </c>
+      <c r="G9" s="16">
+        <v>18622</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45219</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,15 +1289,22 @@
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>45145</v>
+      </c>
+      <c r="G10" s="16">
+        <v>25000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,15 +1312,22 @@
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15">
+        <v>45153</v>
+      </c>
+      <c r="G11" s="16">
+        <v>23200</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1339,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1325,11 +1355,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1371,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1387,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1403,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1419,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1435,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1451,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1467,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1483,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1499,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1515,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1531,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1547,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1563,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1579,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1595,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1611,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1627,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1643,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1659,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,11 +1675,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,11 +1692,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1695,7 +1725,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>136315</v>
+        <v>203137</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1718,7 +1748,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>72349</v>
+        <v>5527</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
